--- a/scripts/1_Pre_processing/Sample_information_of_Miseq_Hiseq.xlsx
+++ b/scripts/1_Pre_processing/Sample_information_of_Miseq_Hiseq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoyuzhao/Desktop/Scripts_oncogenic_GI_screenings/scripts/1_Pre_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF698861-1DAB-A94E-A32E-DE52F420AE34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236EE45E-01C4-FF4E-AC1B-61325BE67D77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="90220" yWindow="460" windowWidth="30840" windowHeight="18280" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4039,7 +4039,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4121,13 +4121,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4471,46 +4464,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4520,7 +4498,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4532,13 +4510,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4550,82 +4531,94 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4941,8 +4934,8 @@
     <col min="1" max="1" width="22.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="15.33203125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="17" style="12" customWidth="1"/>
+    <col min="4" max="7" width="15.33203125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17" style="11" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -4953,485 +4946,485 @@
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="19" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="20" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="20" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="20" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="20" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="20" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="20" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="26" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="45" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="45" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="47"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
     </row>
     <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
     </row>
     <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="58"/>
+      <c r="B14" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
     </row>
     <row r="16" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="B24" s="17"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="B25" s="17"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="B26" s="17"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="B30" s="16"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="B31" s="16"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="B32" s="16"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="B34" s="16"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="B35" s="17"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="B36" s="17"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5458,7 +5451,7 @@
   <cols>
     <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="7" width="21.6640625" style="11" customWidth="1"/>
+    <col min="3" max="7" width="21.6640625" style="10" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -5467,334 +5460,334 @@
         <v>67</v>
       </c>
       <c r="B1" s="4"/>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="19" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="58" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="20" t="s">
         <v>204</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="20" t="s">
         <v>208</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="20" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="58" t="s">
         <v>87</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="45" t="s">
         <v>54</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="58"/>
+      <c r="B13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="45" t="s">
         <v>213</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="58" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="48" t="s">
+      <c r="G15" s="43" t="s">
         <v>214</v>
       </c>
       <c r="H15" s="2"/>
@@ -5812,378 +5805,378 @@
         <v>68</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="19" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="58" t="s">
         <v>180</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="H19" s="23"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="52" t="s">
+      <c r="G20" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="47" t="s">
         <v>217</v>
       </c>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="47" t="s">
         <v>218</v>
       </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="47" t="s">
         <v>219</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="58" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="H25" s="23"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="48" t="s">
+      <c r="F27" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="23" t="s">
         <v>221</v>
       </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="52" t="s">
+      <c r="F28" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="58"/>
+      <c r="B29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="23" t="s">
         <v>223</v>
       </c>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="26" t="s">
         <v>224</v>
       </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="58" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="20" t="s">
         <v>204</v>
       </c>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="17" t="s">
         <v>74</v>
       </c>
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="17" t="s">
         <v>76</v>
       </c>
     </row>
@@ -6196,38 +6189,38 @@
       <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B45" s="4"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="17" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6256,10 +6249,10 @@
   <cols>
     <col min="1" max="1" width="22.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="18.5" style="12" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="26" style="12" customWidth="1"/>
+    <col min="3" max="4" width="18.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="11" customWidth="1"/>
+    <col min="7" max="7" width="26" style="11" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -6269,319 +6262,319 @@
         <v>115</v>
       </c>
       <c r="B1" s="4"/>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="19" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="58" t="s">
         <v>179</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="20" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="20" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="20" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="20" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="20" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="20" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="58" t="s">
         <v>105</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="45" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="45" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="43" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="23" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="45" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="23" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="45" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6590,19 +6583,19 @@
       <c r="B16" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="23" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6611,19 +6604,19 @@
       <c r="B17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="45" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6631,62 +6624,62 @@
       <c r="A18" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="17" t="s">
         <v>74</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
@@ -6695,37 +6688,37 @@
       <c r="A30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="17" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6748,533 +6741,533 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" style="43" customWidth="1"/>
-    <col min="3" max="7" width="19.83203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" style="38" customWidth="1"/>
+    <col min="3" max="7" width="19.83203125" style="11" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="19" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="19" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="19" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="45" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="19" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="22" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="22" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="45" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="19" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="21" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="19" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="11" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="19" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="29" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="45" t="s">
+      <c r="A17" s="56"/>
+      <c r="B17" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="29" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="56"/>
+      <c r="B18" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="29" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="45" t="s">
+      <c r="A19" s="56"/>
+      <c r="B19" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="31" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="56"/>
+      <c r="B20" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="31" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="32" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="56"/>
+      <c r="B22" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="32" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="45" t="s">
+      <c r="A23" s="56"/>
+      <c r="B23" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="32" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="45" t="s">
+      <c r="A24" s="56"/>
+      <c r="B24" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="36" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="45" t="s">
+      <c r="A25" s="56"/>
+      <c r="B25" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="36" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="40" t="s">
         <v>265</v>
       </c>
       <c r="B27" s="4"/>
@@ -7284,612 +7277,612 @@
       <c r="D27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="19" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="58" t="s">
         <v>264</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="20" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="20" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="20" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="20" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="20" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="53" t="s">
+      <c r="F33" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="20" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="53" t="s">
+      <c r="E34" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="20" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="48" t="s">
+      <c r="F35" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="20" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="58" t="s">
         <v>178</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="49" t="s">
+      <c r="F36" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="20" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="31" t="s">
+      <c r="F37" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="20" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="53" t="s">
+      <c r="E38" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="20" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="F39" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="53" t="s">
+      <c r="G39" s="48" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="20" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="20" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="49" t="s">
+      <c r="F42" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="20" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="58" t="s">
         <v>189</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="31" t="s">
+      <c r="G43" s="26" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="48" t="s">
+      <c r="F44" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="50" t="s">
+      <c r="G44" s="45" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="F45" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="28" t="s">
+      <c r="G45" s="23" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="31" t="s">
+      <c r="F46" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="50" t="s">
+      <c r="G46" s="45" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
+      <c r="A47" s="58"/>
       <c r="B47" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G47" s="28" t="s">
+      <c r="G47" s="23" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="E48" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="53" t="s">
+      <c r="F48" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="G48" s="50" t="s">
+      <c r="G48" s="45" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="7" t="s">
+    <row r="49" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="58"/>
+      <c r="B49" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="49" t="s">
+      <c r="E49" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="28" t="s">
+      <c r="G49" s="23" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="7" t="s">
+    <row r="50" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="58"/>
+      <c r="B50" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="49" t="s">
+      <c r="E50" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="48" t="s">
+      <c r="F50" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="48" t="s">
+      <c r="G50" s="43" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="7" t="s">
+    <row r="51" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="58"/>
+      <c r="B51" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="49" t="s">
+      <c r="E51" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F51" s="49" t="s">
+      <c r="F51" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="49" t="s">
+      <c r="G51" s="44" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
+    <row r="52" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="58"/>
       <c r="B52" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="49" t="s">
+      <c r="E52" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="31" t="s">
+      <c r="F52" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G52" s="49" t="s">
+      <c r="G52" s="44" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
+    <row r="53" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="58"/>
       <c r="B53" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="49" t="s">
+      <c r="E53" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F53" s="28" t="s">
+      <c r="F53" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G53" s="49" t="s">
+      <c r="G53" s="44" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
+    <row r="54" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="58"/>
       <c r="B54" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="49" t="s">
+      <c r="E54" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="53" t="s">
+      <c r="F54" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="G54" s="49" t="s">
+      <c r="G54" s="44" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
+    <row r="55" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="58"/>
       <c r="B55" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="E55" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F55" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="28" t="s">
+      <c r="G55" s="23" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
+    <row r="56" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="58"/>
       <c r="B56" s="4"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -7897,65 +7890,65 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="43"/>
-    </row>
-    <row r="58" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="43"/>
-    </row>
-    <row r="59" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
+    <row r="57" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="38"/>
+    </row>
+    <row r="58" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="38"/>
+    </row>
+    <row r="59" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B59" s="43"/>
-    </row>
-    <row r="60" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
+      <c r="B59" s="38"/>
+    </row>
+    <row r="60" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B60" s="43"/>
-    </row>
-    <row r="61" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="44" t="s">
+      <c r="B60" s="38"/>
+    </row>
+    <row r="61" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="B61" s="43"/>
-    </row>
-    <row r="62" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="44" t="s">
+      <c r="B61" s="38"/>
+    </row>
+    <row r="62" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="B62" s="43"/>
-    </row>
-    <row r="63" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="43"/>
-    </row>
-    <row r="64" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="44" t="s">
+      <c r="B62" s="38"/>
+    </row>
+    <row r="63" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="38"/>
+    </row>
+    <row r="64" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="B64" s="43"/>
-    </row>
-    <row r="65" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="44" t="s">
+      <c r="B64" s="38"/>
+    </row>
+    <row r="65" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="B65" s="43"/>
-    </row>
-    <row r="66" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="44" t="s">
+      <c r="B65" s="38"/>
+    </row>
+    <row r="66" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="B66" s="43"/>
-    </row>
-    <row r="67" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="44" t="s">
+      <c r="B66" s="38"/>
+    </row>
+    <row r="67" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="B67" s="43"/>
-    </row>
-    <row r="68" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="43"/>
+      <c r="B67" s="38"/>
+    </row>
+    <row r="68" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7976,7 +7969,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8000,34 +7993,34 @@
       <c r="D1" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="G1" s="64" t="e">
+      <c r="G1" s="54" t="e">
         <f>IF(#REF!="Tissue", "-------------", "*Remarks (as appropriate)")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="58">
+      <c r="F2" s="63">
         <v>0.1</v>
       </c>
       <c r="G2" s="59" t="s">
@@ -8035,187 +8028,187 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="61"/>
+      <c r="E10" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="61"/>
+      <c r="E14" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="12" t="s">
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="19" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -8228,34 +8221,34 @@
       <c r="D19" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="F19" s="63" t="s">
+      <c r="F19" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="G19" s="64" t="e">
+      <c r="G19" s="54" t="e">
         <f>IF(#REF!="Tissue", "-------------", "*Remarks (as appropriate)")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="63">
         <v>0.1</v>
       </c>
       <c r="G20" s="59" t="s">
@@ -8263,215 +8256,215 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="12" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="12" t="s">
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="61" t="s">
         <v>320</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="61" t="s">
         <v>321</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="12" t="s">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="12" t="s">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="12" t="s">
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="61" t="s">
         <v>326</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="61" t="s">
         <v>332</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14" t="s">
+      <c r="D28" s="61"/>
+      <c r="E28" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="61"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="12" t="s">
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="12" t="s">
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="12" t="s">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="61" t="s">
         <v>331</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14" t="s">
+      <c r="D32" s="61"/>
+      <c r="E32" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="F32" s="60"/>
-      <c r="G32" s="61"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="12" t="s">
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="12" t="s">
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="12" t="s">
+      <c r="A35" s="61"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="60"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="51" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="17" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="17" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="52" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="49" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="17" t="s">
         <v>305</v>
       </c>
     </row>
@@ -8481,72 +8474,72 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="17" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="17" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="17" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="17" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="50" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="17" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="17" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="52" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="17" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="17" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="54" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="50" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="17" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="17" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="57" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="17" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="17" t="s">
         <v>342</v>
       </c>
     </row>
@@ -8556,37 +8549,32 @@
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="17" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="17" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="17" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="17" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="56" t="s">
+      <c r="A66" s="51" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="D20:D35"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="E32:E35"/>
     <mergeCell ref="F20:F35"/>
     <mergeCell ref="G20:G35"/>
     <mergeCell ref="A24:A27"/>
@@ -8597,21 +8585,26 @@
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D20:D35"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="G2:G17"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D17"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F17"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D17"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F17"/>
-    <mergeCell ref="G2:G17"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
